--- a/data/AmazonSalesData.xlsx
+++ b/data/AmazonSalesData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ae3349752989282/Documents/amazonsalesanalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ae3349752989282/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{9C0B054A-E499-4FF4-B4D2-761D151989A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12C4EFD9-6AFF-4C71-834B-CEAFAEA62C87}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E3ACF005-1DF4-4CAC-9A95-FDECBB39FA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE6AA506-DBBC-4FEB-A4F4-D724D0C3EFDC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A8FF6D5-2FBC-4F8D-9727-91BD05A18D1E}"/>
   </bookViews>
@@ -1601,1133 +1601,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$1:$K$99</c:f>
-              <c:strCache>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>Size</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>XS</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>XS</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>XS</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6XL</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>XS</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>XS</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4XL</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>XS</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>XS</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>XL</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>XXL</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3XL</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3XL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED12-45AB-929B-F22A25D575A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D061166B-C8CF-BDDE-FB50-718D8A7A1262}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3050,7 +1923,7 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9826,6 +8699,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>